--- a/data/BOC/FTD/FTDE/AGDSCSB_M_historical.xlsx
+++ b/data/BOC/FTD/FTDE/AGDSCSB_M_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AGDSCSB" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,905 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>1999-01</t>
-  </si>
-  <si>
-    <t>1999-02</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>1999-04</t>
-  </si>
-  <si>
-    <t>1999-05</t>
-  </si>
-  <si>
-    <t>1999-06</t>
-  </si>
-  <si>
-    <t>1999-07</t>
-  </si>
-  <si>
-    <t>1999-08</t>
-  </si>
-  <si>
-    <t>1999-09</t>
-  </si>
-  <si>
-    <t>1999-10</t>
-  </si>
-  <si>
-    <t>1999-11</t>
-  </si>
-  <si>
-    <t>1999-12</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>2021-11</t>
-  </si>
-  <si>
-    <t>2021-12</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>AGDSBLBOP</t>
-  </si>
-  <si>
-    <t>Balance,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AGDSBLCSB</t>
-  </si>
-  <si>
-    <t>Balance,  Census Basis</t>
-  </si>
-  <si>
-    <t>AGDSBLNADJ</t>
-  </si>
-  <si>
-    <t>Balance,  Net Adjustments</t>
-  </si>
-  <si>
-    <t>AGDSEXBOP</t>
-  </si>
-  <si>
-    <t>Exports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AGDSEXCSB</t>
-  </si>
-  <si>
-    <t>Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AGDSEXNADJ</t>
-  </si>
-  <si>
-    <t>Exports,  Net Adjustments</t>
-  </si>
-  <si>
-    <t>AGDSIMBOP</t>
-  </si>
-  <si>
-    <t>Imports,  Balance of Payments (BOP) Basis</t>
-  </si>
-  <si>
-    <t>AGDSIMCSB</t>
-  </si>
-  <si>
-    <t>Imports,  Census Basis</t>
-  </si>
-  <si>
-    <t>AGDSIMNADJ</t>
-  </si>
-  <si>
-    <t>Imports,  Net Adjustments</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1265,851 +366,1413 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:280">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>279</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1999-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1999-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1999-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1999-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1999-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1999-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1999-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1999-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1999-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1999-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:280">
-      <c r="A2" s="1" t="s">
-        <v>280</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AGDSBLBOP</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>-22756</v>
@@ -2933,21 +2596,27 @@
       <c r="JO2" t="n">
         <v>-83945</v>
       </c>
-      <c r="JP2" t="s"/>
-      <c r="JQ2" t="s"/>
-      <c r="JR2" t="s">
-        <v>280</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>281</v>
+      <c r="JP2" t="inlineStr"/>
+      <c r="JQ2" t="inlineStr"/>
+      <c r="JR2" t="inlineStr">
+        <is>
+          <t>AGDSBLBOP</t>
+        </is>
+      </c>
+      <c r="JS2" t="inlineStr">
+        <is>
+          <t>Balance,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT2" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:280">
-      <c r="A3" s="1" t="s">
-        <v>282</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AGDSBLCSB</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>-21526</v>
@@ -3771,21 +3440,27 @@
       <c r="JO3" t="n">
         <v>-83196</v>
       </c>
-      <c r="JP3" t="s"/>
-      <c r="JQ3" t="s"/>
-      <c r="JR3" t="s">
-        <v>282</v>
-      </c>
-      <c r="JS3" t="s">
-        <v>283</v>
+      <c r="JP3" t="inlineStr"/>
+      <c r="JQ3" t="inlineStr"/>
+      <c r="JR3" t="inlineStr">
+        <is>
+          <t>AGDSBLCSB</t>
+        </is>
+      </c>
+      <c r="JS3" t="inlineStr">
+        <is>
+          <t>Balance,  Census Basis</t>
+        </is>
       </c>
       <c r="JT3" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:280">
-      <c r="A4" s="1" t="s">
-        <v>284</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AGDSBLNADJ</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>-1230</v>
@@ -4609,21 +4284,27 @@
       <c r="JO4" t="n">
         <v>-749</v>
       </c>
-      <c r="JP4" t="s"/>
-      <c r="JQ4" t="s"/>
-      <c r="JR4" t="s">
-        <v>284</v>
-      </c>
-      <c r="JS4" t="s">
-        <v>285</v>
+      <c r="JP4" t="inlineStr"/>
+      <c r="JQ4" t="inlineStr"/>
+      <c r="JR4" t="inlineStr">
+        <is>
+          <t>AGDSBLNADJ</t>
+        </is>
+      </c>
+      <c r="JS4" t="inlineStr">
+        <is>
+          <t>Balance,  Net Adjustments</t>
+        </is>
       </c>
       <c r="JT4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:280">
-      <c r="A5" s="1" t="s">
-        <v>286</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AGDSEXBOP</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>55351</v>
@@ -5447,21 +5128,27 @@
       <c r="JO5" t="n">
         <v>158725</v>
       </c>
-      <c r="JP5" t="s"/>
-      <c r="JQ5" t="s"/>
-      <c r="JR5" t="s">
-        <v>286</v>
-      </c>
-      <c r="JS5" t="s">
-        <v>287</v>
+      <c r="JP5" t="inlineStr"/>
+      <c r="JQ5" t="inlineStr"/>
+      <c r="JR5" t="inlineStr">
+        <is>
+          <t>AGDSEXBOP</t>
+        </is>
+      </c>
+      <c r="JS5" t="inlineStr">
+        <is>
+          <t>Exports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:280">
-      <c r="A6" s="1" t="s">
-        <v>288</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AGDSEXCSB</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>56390</v>
@@ -6285,21 +5972,27 @@
       <c r="JO6" t="n">
         <v>157930</v>
       </c>
-      <c r="JP6" t="s"/>
-      <c r="JQ6" t="s"/>
-      <c r="JR6" t="s">
-        <v>288</v>
-      </c>
-      <c r="JS6" t="s">
-        <v>289</v>
+      <c r="JP6" t="inlineStr"/>
+      <c r="JQ6" t="inlineStr"/>
+      <c r="JR6" t="inlineStr">
+        <is>
+          <t>AGDSEXCSB</t>
+        </is>
+      </c>
+      <c r="JS6" t="inlineStr">
+        <is>
+          <t>Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="JT6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:280">
-      <c r="A7" s="1" t="s">
-        <v>290</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AGDSEXNADJ</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>-1039</v>
@@ -7123,21 +6816,27 @@
       <c r="JO7" t="n">
         <v>795</v>
       </c>
-      <c r="JP7" t="s"/>
-      <c r="JQ7" t="s"/>
-      <c r="JR7" t="s">
-        <v>290</v>
-      </c>
-      <c r="JS7" t="s">
-        <v>291</v>
+      <c r="JP7" t="inlineStr"/>
+      <c r="JQ7" t="inlineStr"/>
+      <c r="JR7" t="inlineStr">
+        <is>
+          <t>AGDSEXNADJ</t>
+        </is>
+      </c>
+      <c r="JS7" t="inlineStr">
+        <is>
+          <t>Exports,  Net Adjustments</t>
+        </is>
       </c>
       <c r="JT7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:280">
-      <c r="A8" s="1" t="s">
-        <v>292</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AGDSIMBOP</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>78107</v>
@@ -7961,21 +7660,27 @@
       <c r="JO8" t="n">
         <v>242670</v>
       </c>
-      <c r="JP8" t="s"/>
-      <c r="JQ8" t="s"/>
-      <c r="JR8" t="s">
-        <v>292</v>
-      </c>
-      <c r="JS8" t="s">
-        <v>293</v>
+      <c r="JP8" t="inlineStr"/>
+      <c r="JQ8" t="inlineStr"/>
+      <c r="JR8" t="inlineStr">
+        <is>
+          <t>AGDSIMBOP</t>
+        </is>
+      </c>
+      <c r="JS8" t="inlineStr">
+        <is>
+          <t>Imports,  Balance of Payments (BOP) Basis</t>
+        </is>
       </c>
       <c r="JT8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:280">
-      <c r="A9" s="1" t="s">
-        <v>294</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AGDSIMCSB</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>77916</v>
@@ -8799,21 +8504,27 @@
       <c r="JO9" t="n">
         <v>241127</v>
       </c>
-      <c r="JP9" t="s"/>
-      <c r="JQ9" t="s"/>
-      <c r="JR9" t="s">
-        <v>294</v>
-      </c>
-      <c r="JS9" t="s">
-        <v>295</v>
+      <c r="JP9" t="inlineStr"/>
+      <c r="JQ9" t="inlineStr"/>
+      <c r="JR9" t="inlineStr">
+        <is>
+          <t>AGDSIMCSB</t>
+        </is>
+      </c>
+      <c r="JS9" t="inlineStr">
+        <is>
+          <t>Imports,  Census Basis</t>
+        </is>
       </c>
       <c r="JT9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:280">
-      <c r="A10" s="1" t="s">
-        <v>296</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AGDSIMNADJ</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>191</v>
@@ -9637,13 +9348,17 @@
       <c r="JO10" t="n">
         <v>1543</v>
       </c>
-      <c r="JP10" t="s"/>
-      <c r="JQ10" t="s"/>
-      <c r="JR10" t="s">
-        <v>296</v>
-      </c>
-      <c r="JS10" t="s">
-        <v>297</v>
+      <c r="JP10" t="inlineStr"/>
+      <c r="JQ10" t="inlineStr"/>
+      <c r="JR10" t="inlineStr">
+        <is>
+          <t>AGDSIMNADJ</t>
+        </is>
+      </c>
+      <c r="JS10" t="inlineStr">
+        <is>
+          <t>Imports,  Net Adjustments</t>
+        </is>
       </c>
       <c r="JT10" t="n">
         <v>9</v>

--- a/data/BOC/FTD/FTDE/AGDSCSB_M_historical.xlsx
+++ b/data/BOC/FTD/FTDE/AGDSCSB_M_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JT10"/>
+  <dimension ref="A1:KF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,15 +1754,75 @@
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -2567,48 +2627,66 @@
         <v>-84770</v>
       </c>
       <c r="JF2" t="n">
-        <v>-86580</v>
+        <v>-85957</v>
       </c>
       <c r="JG2" t="n">
-        <v>-89298</v>
+        <v>-88675</v>
       </c>
       <c r="JH2" t="n">
-        <v>-93011</v>
+        <v>-92389</v>
       </c>
       <c r="JI2" t="n">
-        <v>-87041</v>
+        <v>-86419</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-89309</v>
+        <v>-88686</v>
       </c>
       <c r="JK2" t="n">
-        <v>-93264</v>
+        <v>-92642</v>
       </c>
       <c r="JL2" t="n">
-        <v>-87682</v>
+        <v>-87136</v>
       </c>
       <c r="JM2" t="n">
-        <v>-89162</v>
+        <v>-88605</v>
       </c>
       <c r="JN2" t="n">
-        <v>-97983</v>
+        <v>-97429</v>
       </c>
       <c r="JO2" t="n">
-        <v>-83945</v>
-      </c>
-      <c r="JP2" t="inlineStr"/>
-      <c r="JQ2" t="inlineStr"/>
-      <c r="JR2" t="inlineStr">
+        <v>-83324</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>-98371</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>-101751</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>-108864</v>
+      </c>
+      <c r="JS2" t="inlineStr"/>
+      <c r="JT2" t="inlineStr"/>
+      <c r="JU2" t="inlineStr"/>
+      <c r="JV2" t="inlineStr"/>
+      <c r="JW2" t="inlineStr"/>
+      <c r="JX2" t="inlineStr"/>
+      <c r="JY2" t="inlineStr"/>
+      <c r="JZ2" t="inlineStr"/>
+      <c r="KA2" t="inlineStr"/>
+      <c r="KB2" t="inlineStr"/>
+      <c r="KC2" t="inlineStr"/>
+      <c r="KD2" t="inlineStr">
         <is>
           <t>AGDSBLBOP</t>
         </is>
       </c>
-      <c r="JS2" t="inlineStr">
+      <c r="KE2" t="inlineStr">
         <is>
           <t>Balance,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT2" t="n">
+      <c r="KF2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3411,48 +3489,66 @@
         <v>-83857</v>
       </c>
       <c r="JF3" t="n">
-        <v>-85552</v>
+        <v>-84936</v>
       </c>
       <c r="JG3" t="n">
-        <v>-88211</v>
+        <v>-87595</v>
       </c>
       <c r="JH3" t="n">
-        <v>-91917</v>
+        <v>-91301</v>
       </c>
       <c r="JI3" t="n">
-        <v>-85912</v>
+        <v>-85296</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-88108</v>
+        <v>-87491</v>
       </c>
       <c r="JK3" t="n">
-        <v>-92006</v>
+        <v>-91390</v>
       </c>
       <c r="JL3" t="n">
-        <v>-86920</v>
+        <v>-86304</v>
       </c>
       <c r="JM3" t="n">
-        <v>-87990</v>
+        <v>-87374</v>
       </c>
       <c r="JN3" t="n">
-        <v>-97009</v>
+        <v>-96393</v>
       </c>
       <c r="JO3" t="n">
-        <v>-83196</v>
-      </c>
-      <c r="JP3" t="inlineStr"/>
-      <c r="JQ3" t="inlineStr"/>
-      <c r="JR3" t="inlineStr">
+        <v>-82490</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>-97323</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>-100672</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>-107571</v>
+      </c>
+      <c r="JS3" t="inlineStr"/>
+      <c r="JT3" t="inlineStr"/>
+      <c r="JU3" t="inlineStr"/>
+      <c r="JV3" t="inlineStr"/>
+      <c r="JW3" t="inlineStr"/>
+      <c r="JX3" t="inlineStr"/>
+      <c r="JY3" t="inlineStr"/>
+      <c r="JZ3" t="inlineStr"/>
+      <c r="KA3" t="inlineStr"/>
+      <c r="KB3" t="inlineStr"/>
+      <c r="KC3" t="inlineStr"/>
+      <c r="KD3" t="inlineStr">
         <is>
           <t>AGDSBLCSB</t>
         </is>
       </c>
-      <c r="JS3" t="inlineStr">
+      <c r="KE3" t="inlineStr">
         <is>
           <t>Balance,  Census Basis</t>
         </is>
       </c>
-      <c r="JT3" t="n">
+      <c r="KF3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4255,48 +4351,66 @@
         <v>-913</v>
       </c>
       <c r="JF4" t="n">
-        <v>-1028</v>
+        <v>-1021</v>
       </c>
       <c r="JG4" t="n">
-        <v>-1087</v>
+        <v>-1080</v>
       </c>
       <c r="JH4" t="n">
-        <v>-1094</v>
+        <v>-1088</v>
       </c>
       <c r="JI4" t="n">
-        <v>-1129</v>
+        <v>-1123</v>
       </c>
       <c r="JJ4" t="n">
-        <v>-1201</v>
+        <v>-1195</v>
       </c>
       <c r="JK4" t="n">
-        <v>-1258</v>
+        <v>-1252</v>
       </c>
       <c r="JL4" t="n">
-        <v>-762</v>
+        <v>-832</v>
       </c>
       <c r="JM4" t="n">
-        <v>-1172</v>
+        <v>-1231</v>
       </c>
       <c r="JN4" t="n">
-        <v>-974</v>
+        <v>-1036</v>
       </c>
       <c r="JO4" t="n">
-        <v>-749</v>
-      </c>
-      <c r="JP4" t="inlineStr"/>
-      <c r="JQ4" t="inlineStr"/>
-      <c r="JR4" t="inlineStr">
+        <v>-834</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>-1048</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>-1079</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>-1293</v>
+      </c>
+      <c r="JS4" t="inlineStr"/>
+      <c r="JT4" t="inlineStr"/>
+      <c r="JU4" t="inlineStr"/>
+      <c r="JV4" t="inlineStr"/>
+      <c r="JW4" t="inlineStr"/>
+      <c r="JX4" t="inlineStr"/>
+      <c r="JY4" t="inlineStr"/>
+      <c r="JZ4" t="inlineStr"/>
+      <c r="KA4" t="inlineStr"/>
+      <c r="KB4" t="inlineStr"/>
+      <c r="KC4" t="inlineStr"/>
+      <c r="KD4" t="inlineStr">
         <is>
           <t>AGDSBLNADJ</t>
         </is>
       </c>
-      <c r="JS4" t="inlineStr">
+      <c r="KE4" t="inlineStr">
         <is>
           <t>Balance,  Net Adjustments</t>
         </is>
       </c>
-      <c r="JT4" t="n">
+      <c r="KF4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5099,48 +5213,66 @@
         <v>131500</v>
       </c>
       <c r="JF5" t="n">
-        <v>134402</v>
+        <v>134597</v>
       </c>
       <c r="JG5" t="n">
-        <v>130338</v>
+        <v>130533</v>
       </c>
       <c r="JH5" t="n">
-        <v>143604</v>
+        <v>143799</v>
       </c>
       <c r="JI5" t="n">
-        <v>145116</v>
+        <v>145311</v>
       </c>
       <c r="JJ5" t="n">
-        <v>145679</v>
+        <v>145874</v>
       </c>
       <c r="JK5" t="n">
-        <v>145971</v>
+        <v>146166</v>
       </c>
       <c r="JL5" t="n">
-        <v>148765</v>
+        <v>148870</v>
       </c>
       <c r="JM5" t="n">
-        <v>149922</v>
+        <v>150041</v>
       </c>
       <c r="JN5" t="n">
-        <v>142907</v>
+        <v>143019</v>
       </c>
       <c r="JO5" t="n">
-        <v>158725</v>
-      </c>
-      <c r="JP5" t="inlineStr"/>
-      <c r="JQ5" t="inlineStr"/>
-      <c r="JR5" t="inlineStr">
+        <v>159020</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>156271</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>158208</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>155890</v>
+      </c>
+      <c r="JS5" t="inlineStr"/>
+      <c r="JT5" t="inlineStr"/>
+      <c r="JU5" t="inlineStr"/>
+      <c r="JV5" t="inlineStr"/>
+      <c r="JW5" t="inlineStr"/>
+      <c r="JX5" t="inlineStr"/>
+      <c r="JY5" t="inlineStr"/>
+      <c r="JZ5" t="inlineStr"/>
+      <c r="KA5" t="inlineStr"/>
+      <c r="KB5" t="inlineStr"/>
+      <c r="KC5" t="inlineStr"/>
+      <c r="KD5" t="inlineStr">
         <is>
           <t>AGDSEXBOP</t>
         </is>
       </c>
-      <c r="JS5" t="inlineStr">
+      <c r="KE5" t="inlineStr">
         <is>
           <t>Exports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT5" t="n">
+      <c r="KF5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5943,48 +6075,66 @@
         <v>131168</v>
       </c>
       <c r="JF6" t="n">
-        <v>134144</v>
+        <v>134339</v>
       </c>
       <c r="JG6" t="n">
-        <v>129968</v>
+        <v>130163</v>
       </c>
       <c r="JH6" t="n">
-        <v>143140</v>
+        <v>143335</v>
       </c>
       <c r="JI6" t="n">
-        <v>144574</v>
+        <v>144769</v>
       </c>
       <c r="JJ6" t="n">
-        <v>145087</v>
+        <v>145283</v>
       </c>
       <c r="JK6" t="n">
-        <v>145269</v>
+        <v>145464</v>
       </c>
       <c r="JL6" t="n">
-        <v>147936</v>
+        <v>148132</v>
       </c>
       <c r="JM6" t="n">
-        <v>149177</v>
+        <v>149372</v>
       </c>
       <c r="JN6" t="n">
-        <v>142230</v>
+        <v>142425</v>
       </c>
       <c r="JO6" t="n">
-        <v>157930</v>
-      </c>
-      <c r="JP6" t="inlineStr"/>
-      <c r="JQ6" t="inlineStr"/>
-      <c r="JR6" t="inlineStr">
+        <v>158248</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>155422</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>157553</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>155263</v>
+      </c>
+      <c r="JS6" t="inlineStr"/>
+      <c r="JT6" t="inlineStr"/>
+      <c r="JU6" t="inlineStr"/>
+      <c r="JV6" t="inlineStr"/>
+      <c r="JW6" t="inlineStr"/>
+      <c r="JX6" t="inlineStr"/>
+      <c r="JY6" t="inlineStr"/>
+      <c r="JZ6" t="inlineStr"/>
+      <c r="KA6" t="inlineStr"/>
+      <c r="KB6" t="inlineStr"/>
+      <c r="KC6" t="inlineStr"/>
+      <c r="KD6" t="inlineStr">
         <is>
           <t>AGDSEXCSB</t>
         </is>
       </c>
-      <c r="JS6" t="inlineStr">
+      <c r="KE6" t="inlineStr">
         <is>
           <t>Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="JT6" t="n">
+      <c r="KF6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -6787,13 +6937,13 @@
         <v>332</v>
       </c>
       <c r="JF7" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="JG7" t="n">
         <v>370</v>
       </c>
       <c r="JH7" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="JI7" t="n">
         <v>542</v>
@@ -6805,30 +6955,48 @@
         <v>702</v>
       </c>
       <c r="JL7" t="n">
-        <v>829</v>
+        <v>739</v>
       </c>
       <c r="JM7" t="n">
-        <v>745</v>
+        <v>669</v>
       </c>
       <c r="JN7" t="n">
-        <v>677</v>
+        <v>594</v>
       </c>
       <c r="JO7" t="n">
-        <v>795</v>
-      </c>
-      <c r="JP7" t="inlineStr"/>
-      <c r="JQ7" t="inlineStr"/>
-      <c r="JR7" t="inlineStr">
+        <v>772</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>848</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>655</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>627</v>
+      </c>
+      <c r="JS7" t="inlineStr"/>
+      <c r="JT7" t="inlineStr"/>
+      <c r="JU7" t="inlineStr"/>
+      <c r="JV7" t="inlineStr"/>
+      <c r="JW7" t="inlineStr"/>
+      <c r="JX7" t="inlineStr"/>
+      <c r="JY7" t="inlineStr"/>
+      <c r="JZ7" t="inlineStr"/>
+      <c r="KA7" t="inlineStr"/>
+      <c r="KB7" t="inlineStr"/>
+      <c r="KC7" t="inlineStr"/>
+      <c r="KD7" t="inlineStr">
         <is>
           <t>AGDSEXNADJ</t>
         </is>
       </c>
-      <c r="JS7" t="inlineStr">
+      <c r="KE7" t="inlineStr">
         <is>
           <t>Exports,  Net Adjustments</t>
         </is>
       </c>
-      <c r="JT7" t="n">
+      <c r="KF7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -7631,48 +7799,66 @@
         <v>216270</v>
       </c>
       <c r="JF8" t="n">
-        <v>220982</v>
+        <v>220554</v>
       </c>
       <c r="JG8" t="n">
-        <v>219635</v>
+        <v>219208</v>
       </c>
       <c r="JH8" t="n">
-        <v>236615</v>
+        <v>236188</v>
       </c>
       <c r="JI8" t="n">
-        <v>232157</v>
+        <v>231729</v>
       </c>
       <c r="JJ8" t="n">
-        <v>234988</v>
+        <v>234561</v>
       </c>
       <c r="JK8" t="n">
-        <v>239235</v>
+        <v>238808</v>
       </c>
       <c r="JL8" t="n">
-        <v>236447</v>
+        <v>236006</v>
       </c>
       <c r="JM8" t="n">
-        <v>239083</v>
+        <v>238646</v>
       </c>
       <c r="JN8" t="n">
-        <v>240890</v>
+        <v>240448</v>
       </c>
       <c r="JO8" t="n">
-        <v>242670</v>
-      </c>
-      <c r="JP8" t="inlineStr"/>
-      <c r="JQ8" t="inlineStr"/>
-      <c r="JR8" t="inlineStr">
+        <v>242344</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>254642</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>259959</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>264754</v>
+      </c>
+      <c r="JS8" t="inlineStr"/>
+      <c r="JT8" t="inlineStr"/>
+      <c r="JU8" t="inlineStr"/>
+      <c r="JV8" t="inlineStr"/>
+      <c r="JW8" t="inlineStr"/>
+      <c r="JX8" t="inlineStr"/>
+      <c r="JY8" t="inlineStr"/>
+      <c r="JZ8" t="inlineStr"/>
+      <c r="KA8" t="inlineStr"/>
+      <c r="KB8" t="inlineStr"/>
+      <c r="KC8" t="inlineStr"/>
+      <c r="KD8" t="inlineStr">
         <is>
           <t>AGDSIMBOP</t>
         </is>
       </c>
-      <c r="JS8" t="inlineStr">
+      <c r="KE8" t="inlineStr">
         <is>
           <t>Imports,  Balance of Payments (BOP) Basis</t>
         </is>
       </c>
-      <c r="JT8" t="n">
+      <c r="KF8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -8475,48 +8661,66 @@
         <v>215025</v>
       </c>
       <c r="JF9" t="n">
-        <v>219696</v>
+        <v>219275</v>
       </c>
       <c r="JG9" t="n">
-        <v>218179</v>
+        <v>217758</v>
       </c>
       <c r="JH9" t="n">
-        <v>235057</v>
+        <v>234636</v>
       </c>
       <c r="JI9" t="n">
-        <v>230486</v>
+        <v>230065</v>
       </c>
       <c r="JJ9" t="n">
-        <v>233195</v>
+        <v>232774</v>
       </c>
       <c r="JK9" t="n">
-        <v>237275</v>
+        <v>236854</v>
       </c>
       <c r="JL9" t="n">
-        <v>234857</v>
+        <v>234436</v>
       </c>
       <c r="JM9" t="n">
-        <v>237167</v>
+        <v>236746</v>
       </c>
       <c r="JN9" t="n">
-        <v>239239</v>
+        <v>238818</v>
       </c>
       <c r="JO9" t="n">
-        <v>241127</v>
-      </c>
-      <c r="JP9" t="inlineStr"/>
-      <c r="JQ9" t="inlineStr"/>
-      <c r="JR9" t="inlineStr">
+        <v>240738</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>252745</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>258225</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>262834</v>
+      </c>
+      <c r="JS9" t="inlineStr"/>
+      <c r="JT9" t="inlineStr"/>
+      <c r="JU9" t="inlineStr"/>
+      <c r="JV9" t="inlineStr"/>
+      <c r="JW9" t="inlineStr"/>
+      <c r="JX9" t="inlineStr"/>
+      <c r="JY9" t="inlineStr"/>
+      <c r="JZ9" t="inlineStr"/>
+      <c r="KA9" t="inlineStr"/>
+      <c r="KB9" t="inlineStr"/>
+      <c r="KC9" t="inlineStr"/>
+      <c r="KD9" t="inlineStr">
         <is>
           <t>AGDSIMCSB</t>
         </is>
       </c>
-      <c r="JS9" t="inlineStr">
+      <c r="KE9" t="inlineStr">
         <is>
           <t>Imports,  Census Basis</t>
         </is>
       </c>
-      <c r="JT9" t="n">
+      <c r="KF9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -9319,48 +9523,66 @@
         <v>1245</v>
       </c>
       <c r="JF10" t="n">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="JG10" t="n">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="JH10" t="n">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="JI10" t="n">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="JJ10" t="n">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="JK10" t="n">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="JL10" t="n">
-        <v>1590</v>
+        <v>1571</v>
       </c>
       <c r="JM10" t="n">
-        <v>1916</v>
+        <v>1900</v>
       </c>
       <c r="JN10" t="n">
-        <v>1651</v>
+        <v>1630</v>
       </c>
       <c r="JO10" t="n">
-        <v>1543</v>
-      </c>
-      <c r="JP10" t="inlineStr"/>
-      <c r="JQ10" t="inlineStr"/>
-      <c r="JR10" t="inlineStr">
+        <v>1606</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>1897</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>1734</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>1920</v>
+      </c>
+      <c r="JS10" t="inlineStr"/>
+      <c r="JT10" t="inlineStr"/>
+      <c r="JU10" t="inlineStr"/>
+      <c r="JV10" t="inlineStr"/>
+      <c r="JW10" t="inlineStr"/>
+      <c r="JX10" t="inlineStr"/>
+      <c r="JY10" t="inlineStr"/>
+      <c r="JZ10" t="inlineStr"/>
+      <c r="KA10" t="inlineStr"/>
+      <c r="KB10" t="inlineStr"/>
+      <c r="KC10" t="inlineStr"/>
+      <c r="KD10" t="inlineStr">
         <is>
           <t>AGDSIMNADJ</t>
         </is>
       </c>
-      <c r="JS10" t="inlineStr">
+      <c r="KE10" t="inlineStr">
         <is>
           <t>Imports,  Net Adjustments</t>
         </is>
       </c>
-      <c r="JT10" t="n">
+      <c r="KF10" t="n">
         <v>9</v>
       </c>
     </row>

--- a/data/BOC/FTD/FTDE/AGDSCSB_M_historical.xlsx
+++ b/data/BOC/FTD/FTDE/AGDSCSB_M_historical.xlsx
@@ -2663,9 +2663,11 @@
         <v>-101751</v>
       </c>
       <c r="JR2" t="n">
-        <v>-108864</v>
-      </c>
-      <c r="JS2" t="inlineStr"/>
+        <v>-108603</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>-107470</v>
+      </c>
       <c r="JT2" t="inlineStr"/>
       <c r="JU2" t="inlineStr"/>
       <c r="JV2" t="inlineStr"/>
@@ -3525,9 +3527,11 @@
         <v>-100672</v>
       </c>
       <c r="JR3" t="n">
-        <v>-107571</v>
-      </c>
-      <c r="JS3" t="inlineStr"/>
+        <v>-107357</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>-106345</v>
+      </c>
       <c r="JT3" t="inlineStr"/>
       <c r="JU3" t="inlineStr"/>
       <c r="JV3" t="inlineStr"/>
@@ -4387,9 +4391,11 @@
         <v>-1079</v>
       </c>
       <c r="JR4" t="n">
-        <v>-1293</v>
-      </c>
-      <c r="JS4" t="inlineStr"/>
+        <v>-1246</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>-1125</v>
+      </c>
       <c r="JT4" t="inlineStr"/>
       <c r="JU4" t="inlineStr"/>
       <c r="JV4" t="inlineStr"/>
@@ -5249,9 +5255,11 @@
         <v>158208</v>
       </c>
       <c r="JR5" t="n">
-        <v>155890</v>
-      </c>
-      <c r="JS5" t="inlineStr"/>
+        <v>155983</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>158777</v>
+      </c>
       <c r="JT5" t="inlineStr"/>
       <c r="JU5" t="inlineStr"/>
       <c r="JV5" t="inlineStr"/>
@@ -6111,9 +6119,11 @@
         <v>157553</v>
       </c>
       <c r="JR6" t="n">
-        <v>155263</v>
-      </c>
-      <c r="JS6" t="inlineStr"/>
+        <v>155337</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>157949</v>
+      </c>
       <c r="JT6" t="inlineStr"/>
       <c r="JU6" t="inlineStr"/>
       <c r="JV6" t="inlineStr"/>
@@ -6973,9 +6983,11 @@
         <v>655</v>
       </c>
       <c r="JR7" t="n">
-        <v>627</v>
-      </c>
-      <c r="JS7" t="inlineStr"/>
+        <v>646</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>828</v>
+      </c>
       <c r="JT7" t="inlineStr"/>
       <c r="JU7" t="inlineStr"/>
       <c r="JV7" t="inlineStr"/>
@@ -7835,9 +7847,11 @@
         <v>259959</v>
       </c>
       <c r="JR8" t="n">
-        <v>264754</v>
-      </c>
-      <c r="JS8" t="inlineStr"/>
+        <v>264586</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>266246</v>
+      </c>
       <c r="JT8" t="inlineStr"/>
       <c r="JU8" t="inlineStr"/>
       <c r="JV8" t="inlineStr"/>
@@ -8697,9 +8711,11 @@
         <v>258225</v>
       </c>
       <c r="JR9" t="n">
-        <v>262834</v>
-      </c>
-      <c r="JS9" t="inlineStr"/>
+        <v>262693</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>264294</v>
+      </c>
       <c r="JT9" t="inlineStr"/>
       <c r="JU9" t="inlineStr"/>
       <c r="JV9" t="inlineStr"/>
@@ -9559,9 +9575,11 @@
         <v>1734</v>
       </c>
       <c r="JR10" t="n">
-        <v>1920</v>
-      </c>
-      <c r="JS10" t="inlineStr"/>
+        <v>1893</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>1952</v>
+      </c>
       <c r="JT10" t="inlineStr"/>
       <c r="JU10" t="inlineStr"/>
       <c r="JV10" t="inlineStr"/>
